--- a/voluntario3/resultados/apartado8/Libro1 (version 1).xlsx
+++ b/voluntario3/resultados/apartado8/Libro1 (version 1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\Universidad\tercero\compu\voluntario3\resultados\apartado8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B8F9A0C-E716-45A0-9BE6-A4134AB4CFDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFB6DB0D-956D-4AA8-AB03-05ED33F17754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D42625D4-6B34-424E-BFB5-761AA5AA0564}"/>
   </bookViews>
@@ -429,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6A0C49B-F488-492D-9BCB-A6133A81F52B}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="E2" sqref="E2:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -440,7 +440,7 @@
     <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -451,7 +451,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -461,8 +461,16 @@
       <c r="C2">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E2" t="str">
+        <f>"$" &amp; A2&amp; "$"</f>
+        <v>$1$</v>
+      </c>
+      <c r="F2" t="str">
+        <f>"$" &amp; B2&amp; "\pm" &amp;C2&amp; "$"</f>
+        <v>$0.83\pm0.03$</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -472,8 +480,16 @@
       <c r="C3" s="2">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E9" si="0">"$" &amp; A3&amp; "$"</f>
+        <v>$2$</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F10" si="1">"$" &amp; B3&amp; "\pm" &amp;C3&amp; "$"</f>
+        <v>$0.7\pm0.1$</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -483,11 +499,16 @@
       <c r="C4" s="1">
         <v>0.05</v>
       </c>
-      <c r="F4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>$3$</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="1"/>
+        <v>$0.6\pm0.05$</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -497,17 +518,16 @@
       <c r="C5">
         <v>0.05</v>
       </c>
-      <c r="F5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5">
-        <v>1.05</v>
-      </c>
-      <c r="H5">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>$4$</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="1"/>
+        <v>$0.53\pm0.05$</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -517,17 +537,16 @@
       <c r="C6">
         <v>0.05</v>
       </c>
-      <c r="F6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6">
-        <v>0.21</v>
-      </c>
-      <c r="H6">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>$5$</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="1"/>
+        <v>$0.46\pm0.05$</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -537,8 +556,16 @@
       <c r="C7">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>$6$</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="1"/>
+        <v>$0.29\pm0.05$</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -548,14 +575,16 @@
       <c r="C8">
         <v>0.05</v>
       </c>
-      <c r="F8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8">
-        <v>1.84185</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>$7$</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="1"/>
+        <v>$0.22\pm0.05$</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -564,6 +593,55 @@
       </c>
       <c r="C9">
         <v>2.3E-2</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>$8$</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="1"/>
+        <v>$0.15\pm0.023$</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F10" t="str">
+        <f t="shared" si="1"/>
+        <v>$\pm$</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>1.05</v>
+      </c>
+      <c r="D14">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>0.21</v>
+      </c>
+      <c r="D15">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
+        <v>1.84185</v>
       </c>
     </row>
   </sheetData>
@@ -576,7 +654,7 @@
   <dimension ref="A2:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:F8"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -672,15 +750,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADE98181-1DC3-4E68-B6F3-379A18307E76}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C7"/>
+      <selection activeCell="E2" sqref="E2:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -688,7 +766,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0.1</v>
       </c>
@@ -698,8 +776,16 @@
       <c r="C2">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E2" t="str">
+        <f>"$" &amp; A2&amp; "$"</f>
+        <v>$0.1$</v>
+      </c>
+      <c r="F2" t="str">
+        <f>"$" &amp; B2&amp; "\pm" &amp;C2&amp; "$"</f>
+        <v>$1\pm0.02$</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0.3</v>
       </c>
@@ -709,8 +795,16 @@
       <c r="C3">
         <v>7.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E7" si="0">"$" &amp; A3&amp; "$"</f>
+        <v>$0.3$</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F7" si="1">"$" &amp; B3&amp; "\pm" &amp;C3&amp; "$"</f>
+        <v>$0.987\pm0.007$</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0.5</v>
       </c>
@@ -720,8 +814,16 @@
       <c r="C4">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>$0.5$</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="1"/>
+        <v>$0.974\pm0.01$</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -731,8 +833,16 @@
       <c r="C5">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>$1$</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="1"/>
+        <v>$0.23\pm0.03$</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -742,8 +852,16 @@
       <c r="C6">
         <v>5.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>$5$</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="1"/>
+        <v>$0.007\pm0.005$</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>10</v>
       </c>
@@ -752,6 +870,14 @@
       </c>
       <c r="C7">
         <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>$10$</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="1"/>
+        <v>$0.006\pm0.005$</v>
       </c>
     </row>
   </sheetData>
